--- a/pred_ohlcv/54_21/2020-01-19 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>125722.7077959489</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>130779.6302499741</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>123425.3515177321</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>126889.383112036</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>115225.1674328421</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>137417.8274589836</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>120339.9661602449</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>126117.4992956835</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>134357.7669903876</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>117379.1545540839</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>107359.2214799004</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>116016.6184418689</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>117606.0387418689</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>143161.1994653055</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>121439.8339947942</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>102351.2970514111</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>113973.2098135284</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>159694.1171392677</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>153313.6311406925</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>161356.8470138587</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>155768.8085201578</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>160894.8814632972</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>178386.3047453561</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>176021.4456314196</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>189505.8390314196</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>186123.7309020659</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>176582.9405056373</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>182363.4535056373</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>175409.9827056373</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>177694.1162056373</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>174412.1666370128</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>174412.1666370128</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>170634.3270370128</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>173904.1219370128</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>170816.0928370128</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>168768.4221370128</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>162356.0530370128</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>143336.7613631137</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>130331.9655141904</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>130331.9655141904</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>131873.6184141904</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>131873.6184141904</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>131873.6184141904</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>128895.1328141904</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>127486.8537141904</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>133800.3084141904</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>131237.6561141904</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>132456.2573141904</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>134032.9764141904</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>134032.9764141904</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>133427.2396141904</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>134317.2992141904</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>137934.6589197267</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>136579.1270197267</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>128686.5510197267</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>134727.4612871523</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>133858.4815871523</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>133941.0774871523</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>134609.3509871523</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>135343.6889046043</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>137204.1814691876</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>133394.3466691876</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>131421.6792691876</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>132132.1503691876</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>132357.2503691876</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>131931.0514691876</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>132370.1043691876</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>132370.1043691876</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>131974.0316691877</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>132732.9311691877</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>132732.9311691877</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>131443.9258691877</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>132114.1463691877</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>131323.2766735355</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>130549.5515560033</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>128459.5096560033</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>128408.0951560033</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>128561.3798560033</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>127348.5577560033</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>125822.8135560033</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>126653.5503251921</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>126970.200162616</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>126539.544562616</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>126539.544562616</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>126539.544562616</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>127824.6540966437</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>127085.5373966437</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>126563.3362966437</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>126590.2553966437</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>125312.0663966437</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>125333.0294966437</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>124378.5313966437</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>125192.8153966437</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>125439.7955966437</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>125154.2374966437</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>124924.6030966438</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>125272.0141966438</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>124961.9189966438</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>124961.9189966438</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>126423.1931966438</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>129299.7339966438</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>130814.4351966438</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>132950.455004389</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>133215.532604389</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>137690.634704389</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>136379.3923534568</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>138094.3192641529</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>133805.4535065748</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>135269.0030065748</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>134262.6411065749</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>134525.395371707</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>133752.456571707</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>131671.3536834202</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>131373.9937834202</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>130834.6765834202</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>129668.6178834202</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>131073.0583834202</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>129636.597669977</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>129048.9792773941</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>128193.6002773941</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>131724.7136773941</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>131303.7580773941</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>130653.5018773941</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>129120.3568773941</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>128433.1350773941</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>127376.3264012708</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>123966.4681012708</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>122749.3171012708</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>123725.4849012708</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>124153.0632012708</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>124153.0632012708</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>124759.9376012708</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>125487.7687012707</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>125487.7687012707</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>125882.1241012707</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>126191.8277012707</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>124463.9987012707</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>124463.9987012707</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>123960.1187379432</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>122936.1944379432</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>122084.6946379432</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>123344.1480379432</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>123218.6982379432</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>128927.3384829046</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>127408.5259829046</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>129083.9429829046</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>128547.9329829046</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>128233.7712829046</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>129363.9459829046</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>125836.6713829046</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>125269.5092829046</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>125522.6747829046</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>124146.4914829046</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>122779.6476829046</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>122991.8563829046</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>122877.0553829046</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>125179.8854829046</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>125179.8854829046</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>124666.1212829046</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>93287.62963111809</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>95428.23022441255</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>95428.23022441255</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>94960.51372441255</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>101605.5552244126</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>104903.9961244126</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>107392.9740244126</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>116632.6850545652</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>141289.713226079</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>150107.4393919146</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>144598.9735052641</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>155352.8766414695</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>158730.0171620929</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>154466.8752344491</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>146668.9332344491</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>151415.9700344491</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>144881.6346344491</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>150782.5594140957</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>143768.507054647</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>144511.765154647</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>146633.7258025362</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>145611.4102025362</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>144391.5254025362</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>143682.8279025362</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>143786.4792025362</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>143756.4792025362</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>144261.3422025362</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>147536.1185496004</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>145033.4457496004</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>143599.3217496004</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>142510.9101320747</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>146059.2111902836</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>145583.1186902836</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>145784.1297902836</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>145460.8510902836</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>145499.3719902836</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>120370.4646823029</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>121908.2658823029</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>122721.6154823029</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>122721.6154823029</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>120071.4729790115</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>119635.9214790115</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>123196.2079790115</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>123074.8422790115</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>123418.1507790115</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>123300.4375790115</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>152957.7737983536</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>155811.0190459328</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>155811.0190459328</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>153582.3322459328</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>155058.1617459328</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>154847.3995459328</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>151803.3882459328</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>153632.6023459328</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>152598.2117945362</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>152598.2117945362</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>154254.9271945361</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>152606.9115945361</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>151448.5869284266</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>151448.5869284266</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>149446.1898284265</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>149446.1898284265</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>158862.6508296084</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>160134.6505240009</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>159650.5481240009</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>159411.9487240009</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>159411.9487240009</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>157626.4832240009</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>163060.2791669366</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>125722.7077959489</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>130779.6302499741</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>123425.3515177321</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>126889.383112036</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>115225.1674328421</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>137417.8274589836</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>120339.9661602449</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>126117.4992956835</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>134357.7669903876</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>117379.1545540839</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>107359.2214799004</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>116016.6184418689</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>117606.0387418689</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>143161.1994653055</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>121439.8339947942</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>102351.2970514111</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>113973.2098135284</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>159694.1171392677</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>153313.6311406925</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>161356.8470138587</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>155768.8085201578</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>137597.5433376263</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>146871.6484916481</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>153856.2476916482</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>159789.5034506597</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>155942.0035632972</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>160894.8814632972</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>172888.7708632972</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>172888.7708632972</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>178386.3047453561</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>176021.4456314196</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>189505.8390314196</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>186123.7309020659</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>176582.9405056373</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>182363.4535056373</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>175409.9827056373</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>177694.1162056373</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>174412.1666370128</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>174412.1666370128</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>170634.3270370128</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>173904.1219370128</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>170816.0928370128</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>168768.4221370128</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>162356.0530370128</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>166353.5678370128</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>149486.1243370128</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>143336.7613631137</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>130331.9655141904</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>130331.9655141904</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>131873.6184141904</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>131873.6184141904</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>131873.6184141904</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>128895.1328141904</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>127486.8537141904</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>133800.3084141904</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>131237.6561141904</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>132456.2573141904</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>134032.9764141904</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>134032.9764141904</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>133427.2396141904</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>134317.2992141904</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>137934.6589197267</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>136579.1270197267</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>128686.5510197267</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>134727.4612871523</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>133858.4815871523</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>133941.0774871523</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>134609.3509871523</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>135343.6889046043</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>137204.1814691876</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>133394.3466691876</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>131421.6792691876</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>132132.1503691876</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>132357.2503691876</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>131931.0514691876</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>132370.1043691876</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>132370.1043691876</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>131974.0316691877</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>132732.9311691877</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>132732.9311691877</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>131443.9258691877</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>132114.1463691877</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>131323.2766735355</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>130549.5515560033</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>128459.5096560033</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>128408.0951560033</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>128561.3798560033</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>127348.5577560033</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>125822.8135560033</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>126653.5503251921</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>126970.200162616</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>126539.544562616</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>126539.544562616</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>126539.544562616</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>127824.6540966437</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>127085.5373966437</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>126563.3362966437</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>126590.2553966437</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>125312.0663966437</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>125333.0294966437</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>124378.5313966437</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>125192.8153966437</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>125439.7955966437</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>125154.2374966437</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>124924.6030966438</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>125272.0141966438</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>124961.9189966438</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>124961.9189966438</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>126423.1931966438</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>129299.7339966438</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>130814.4351966438</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>132950.455004389</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>133215.532604389</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>137690.634704389</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>136379.3923534568</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>138094.3192641529</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>133805.4535065748</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>135269.0030065748</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>134262.6411065749</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>134525.395371707</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>133752.456571707</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>131671.3536834202</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>131373.9937834202</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>130834.6765834202</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>129668.6178834202</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>131073.0583834202</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>129636.597669977</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>129048.9792773941</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>128193.6002773941</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>131724.7136773941</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>131303.7580773941</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>130653.5018773941</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>129120.3568773941</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>128433.1350773941</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>127376.3264012708</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>123966.4681012708</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>122749.3171012708</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>123725.4849012708</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>124153.0632012708</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>124153.0632012708</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>124759.9376012708</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>125487.7687012707</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>125487.7687012707</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>125882.1241012707</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>126191.8277012707</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>124463.9987012707</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>124463.9987012707</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>123960.1187379432</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>122936.1944379432</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>122084.6946379432</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>123344.1480379432</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>123218.6982379432</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>128927.3384829046</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>127408.5259829046</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>129083.9429829046</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>128547.9329829046</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>128233.7712829046</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>129363.9459829046</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>125836.6713829046</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>125269.5092829046</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>125522.6747829046</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>124146.4914829046</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>122779.6476829046</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>122991.8563829046</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>122877.0553829046</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>125179.8854829046</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>125179.8854829046</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>124666.1212829046</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>101992.702242746</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>93287.62963111809</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>95428.23022441255</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>95428.23022441255</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>94960.51372441255</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>101605.5552244126</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>104903.9961244126</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>107392.9740244126</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>116632.6850545652</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>141289.713226079</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>150107.4393919146</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>144598.9735052641</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>155352.8766414695</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>158730.0171620929</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>154466.8752344491</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>146668.9332344491</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>151415.9700344491</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>144881.6346344491</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>150782.5594140957</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>143768.507054647</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>144511.765154647</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>146633.7258025362</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>145611.4102025362</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>144391.5254025362</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>143682.8279025362</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>143786.4792025362</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>143756.4792025362</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>144261.3422025362</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>147536.1185496004</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>145033.4457496004</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>143599.3217496004</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>142510.9101320747</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>146059.2111902836</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>145583.1186902836</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>145784.1297902836</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>145460.8510902836</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>145499.3719902836</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>119590.6083790115</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>123196.2079790115</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>123074.8422790115</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>123418.1507790115</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>123300.4375790115</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>122791.4375790115</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>122916.8715790115</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>123217.8852790114</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>152957.7737983536</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>155811.0190459328</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>155811.0190459328</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>153582.3322459328</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>155058.1617459328</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>154847.3995459328</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>151803.3882459328</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>153632.6023459328</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>152598.2117945362</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>152598.2117945362</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>154254.9271945361</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>152606.9115945361</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>151448.5869284266</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>151448.5869284266</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>149446.1898284265</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>149446.1898284265</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>158862.6508296084</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>160134.6505240009</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>159650.5481240009</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>159411.9487240009</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>159411.9487240009</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>157626.4832240009</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>163060.2791669366</v>
       </c>
       <c r="H1236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
